--- a/Casos_Prueba.xlsx
+++ b/Casos_Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoSalomon-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5A2E69-2778-4DC0-A436-A9C38A162EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064901BC-B171-4D2B-B7A5-4AB1B7183BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D86019AC-66CE-411C-9CF7-C582CD1BFA03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>5. Repetir los pasos 1-4 con otro producto diferente</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Añadir al carrito cualquier producto que cueste mas de 60 Euros</t>
+  </si>
+  <si>
+    <t>2. Seleccionar y añadir al carrito cualquier producto que cueste mas de 60 Euros</t>
+  </si>
+  <si>
+    <t>3. Ir al carrito de compras</t>
+  </si>
+  <si>
+    <t>Envio gratuito por compras de mas de 60 Euros</t>
+  </si>
+  <si>
+    <t>La opcion de envio gratuito este habilitada y se refleje costo en el costo total del pedido</t>
+  </si>
+  <si>
+    <t>La opcion de envio gratuito esta habilitada y no se refleja un valor de envio en el costo total del pedido</t>
+  </si>
+  <si>
+    <t>Envio gratuito por compras de mas de 60 Euros - Producto de menos de 60 Euros</t>
+  </si>
+  <si>
+    <t>Envio gratuito por compras de mas de 60 Euros - Producto que cueste 60 Euros</t>
   </si>
 </sst>
 </file>
@@ -309,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,50 +347,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581AC9CA-8D17-4998-B05C-F81D148AB24B}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,9 +738,10 @@
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="32.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -739,230 +788,331 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="14">
         <v>44441</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="14">
         <v>44441</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="17" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="18" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="14">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="M7:M11"/>
+  <mergeCells count="36">
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="L2:L6"/>
     <mergeCell ref="M2:M6"/>
@@ -979,9 +1129,11 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="M7:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos_Prueba.xlsx
+++ b/Casos_Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoSalomon-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064901BC-B171-4D2B-B7A5-4AB1B7183BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF874178-0CCA-4CAC-B653-ABA5F978A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D86019AC-66CE-411C-9CF7-C582CD1BFA03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{D86019AC-66CE-411C-9CF7-C582CD1BFA03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -163,6 +163,30 @@
   </si>
   <si>
     <t>Envio gratuito por compras de mas de 60 Euros - Producto que cueste 60 Euros</t>
+  </si>
+  <si>
+    <t>Añadir al carrito cualquier producto que cueste menos de 60 Euros</t>
+  </si>
+  <si>
+    <t>2. Seleccionar y añadir al carrito cualquier producto que cueste menos de 60 Euros</t>
+  </si>
+  <si>
+    <t>La opcion de envio gratuito no debe visualizarse, debe visualizarse las opciones de envio estandar de pago</t>
+  </si>
+  <si>
+    <t>La opcion de envio gratuito no se visualiza, se visualizan las dos opciones de envio estandar y express</t>
+  </si>
+  <si>
+    <t>Añadir al carrito cualquier producto que cueste exactamente 60 Euros</t>
+  </si>
+  <si>
+    <t>2. Seleccionar y añadir al carrito cualquier producto que cueste exactamente 60 Euros</t>
+  </si>
+  <si>
+    <t>La opcion de envio gratuito no debe visualizarse porque el valor debe superar los 60 Euros para obtener envio gratuito</t>
+  </si>
+  <si>
+    <t>La opcion de envio gratuito ese visualiza, a pesar de que solo debe habilitarse cuando se supere el valor de 60 Euros</t>
   </si>
 </sst>
 </file>
@@ -336,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -347,71 +371,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,10 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581AC9CA-8D17-4998-B05C-F81D148AB24B}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +772,7 @@
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="49.5703125" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
@@ -788,321 +822,489 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="18">
         <v>44441</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="15"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="15"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="15"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="15"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="18">
         <v>44441</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="6" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="15"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="6" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="15"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="15"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="18">
         <v>44472</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="24" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="18">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="18">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="K12:K14"/>
+  <mergeCells count="60">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="F12:F14"/>
@@ -1116,24 +1318,14 @@
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="L2:L6"/>
     <mergeCell ref="M2:M6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="H7:H11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="K12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
